--- a/工作量细分.xlsx
+++ b/工作量细分.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9210" windowHeight="7950"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>方法序号</t>
   </si>
@@ -42,16 +42,19 @@
     <t>SchoolService</t>
   </si>
   <si>
-    <t>ScoreRuleService</t>
-  </si>
-  <si>
     <t>SeminarService</t>
   </si>
   <si>
     <t>Topic</t>
   </si>
   <si>
-    <t>总工作量</t>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>总计</t>
   </si>
 </sst>
 </file>
@@ -74,7 +77,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,135 +219,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -226,19 +229,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,163 +403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,8 +426,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,30 +458,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,6 +479,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -494,26 +497,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,133 +540,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -990,10 +993,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L20"/>
+  <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1006,12 +1009,14 @@
     <col min="6" max="6" width="5.25" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
     <col min="8" max="8" width="6.375" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
-    <col min="10" max="10" width="7.375" customWidth="1"/>
-    <col min="11" max="11" width="5.625" customWidth="1"/>
+    <col min="9" max="9" width="7.375" customWidth="1"/>
+    <col min="10" max="10" width="5.625" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="5.75" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1045,8 +1050,11 @@
       <c r="K2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1078,10 +1086,13 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1107,16 +1118,19 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1145,18 +1159,15 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1182,16 +1193,13 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1217,51 +1225,41 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
+      <c r="F8"/>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
+      <c r="H8"/>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1272,26 +1270,19 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
+      <c r="F9"/>
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
+      <c r="H9"/>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1302,31 +1293,24 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
+      <c r="F10"/>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
+      <c r="H10"/>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1334,34 +1318,20 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
+      <c r="F11"/>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1371,32 +1341,16 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
+      <c r="D12"/>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
+      <c r="F12"/>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1404,34 +1358,18 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D13"/>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
+      <c r="F13"/>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1441,32 +1379,16 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
+      <c r="D14"/>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
+      <c r="F14"/>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1476,32 +1398,14 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1509,184 +1413,132 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
+      <c r="B17"/>
       <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <f>SUM(B3:B21)</f>
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <f>SUM(C3:C21)</f>
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <f>SUM(D3:D21)</f>
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <f>SUM(E3:E21)</f>
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <f>SUM(F3:F21)</f>
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <f>SUM(G3:G21)</f>
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <f>SUM(H3:H21)</f>
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <f>SUM(I3:I21)</f>
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <f>SUM(J3:J21)</f>
         <v>11</v>
       </c>
-      <c r="B20">
-        <f>SUM(B3:B19)</f>
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <f>SUM(C3:C19)</f>
-        <v>16</v>
-      </c>
-      <c r="D20">
-        <f>SUM(D3:D19)</f>
+      <c r="K22">
+        <f>SUM(K3:K21)</f>
         <v>8</v>
       </c>
-      <c r="E20">
-        <f>SUM(E3:E19)</f>
-        <v>15</v>
-      </c>
-      <c r="F20">
-        <f>SUM(F3:F19)</f>
+      <c r="L22">
+        <f>SUM(L3:L21)</f>
         <v>6</v>
       </c>
-      <c r="G20">
-        <f>SUM(G3:G19)</f>
-        <v>18</v>
-      </c>
-      <c r="H20">
-        <f>SUM(H3:H19)</f>
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <f>SUM(I3:I19)</f>
-        <v>5</v>
-      </c>
-      <c r="J20">
-        <f>SUM(J3:J19)</f>
-        <v>17</v>
-      </c>
-      <c r="K20">
-        <f>SUM(K3:K19)</f>
-        <v>11</v>
-      </c>
-      <c r="L20">
-        <f>SUM(B20:K20)</f>
+      <c r="M22">
+        <f>SUM(B22:L22)</f>
         <v>126</v>
       </c>
     </row>

--- a/工作量细分.xlsx
+++ b/工作量细分.xlsx
@@ -62,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -77,20 +77,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -99,60 +176,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,32 +190,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,22 +217,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -229,187 +229,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,30 +420,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -458,30 +434,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +458,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -520,6 +511,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -528,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +540,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,7 +996,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1089,7 +1089,7 @@
         <v>6</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1127,7 +1127,7 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1242,11 +1242,9 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8"/>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8"/>
       <c r="I8">
         <v>1</v>
       </c>
@@ -1270,11 +1268,9 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9"/>
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9"/>
       <c r="I9">
         <v>2</v>
       </c>
@@ -1298,11 +1294,9 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10"/>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10"/>
       <c r="I10">
         <v>1</v>
       </c>
@@ -1326,7 +1320,6 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11"/>
       <c r="G11">
         <v>1</v>
       </c>
@@ -1341,11 +1334,9 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12"/>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12"/>
       <c r="G12">
         <v>1</v>
       </c>
@@ -1360,11 +1351,9 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13"/>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13"/>
       <c r="G13">
         <v>1</v>
       </c>
@@ -1379,11 +1368,9 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14"/>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14"/>
       <c r="G14">
         <v>1</v>
       </c>
@@ -1398,9 +1385,6 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
       <c r="G15">
         <v>1</v>
       </c>
@@ -1415,9 +1399,6 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
       <c r="G16">
         <v>1</v>
       </c>
@@ -1426,13 +1407,9 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17"/>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
       <c r="G17">
         <v>1</v>
       </c>
@@ -1441,11 +1418,6 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
       <c r="G18">
         <v>1</v>
       </c>
@@ -1454,11 +1426,6 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
       <c r="G19">
         <v>1</v>
       </c>
@@ -1467,11 +1434,6 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
       <c r="G20">
         <v>1</v>
       </c>
@@ -1480,11 +1442,6 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
       <c r="G21">
         <v>1</v>
       </c>
@@ -1494,52 +1451,52 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <f>SUM(B3:B21)</f>
+        <f t="shared" ref="B22:L22" si="0">SUM(B3:B21)</f>
         <v>20</v>
       </c>
       <c r="C22">
-        <f>SUM(C3:C21)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D22">
-        <f>SUM(D3:D21)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E22">
-        <f>SUM(E3:E21)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F22">
-        <f>SUM(F3:F21)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G22">
-        <f>SUM(G3:G21)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H22">
-        <f>SUM(H3:H21)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I22">
-        <f>SUM(I3:I21)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J22">
-        <f>SUM(J3:J21)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="K22">
-        <f>SUM(K3:K21)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="L22">
-        <f>SUM(L3:L21)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M22">
         <f>SUM(B22:L22)</f>
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/工作量细分.xlsx
+++ b/工作量细分.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>方法序号</t>
   </si>
@@ -54,6 +54,9 @@
     <t>Timer</t>
   </si>
   <si>
+    <t>Exception</t>
+  </si>
+  <si>
     <t>总计</t>
   </si>
 </sst>
@@ -62,10 +65,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,33 +93,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,17 +146,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,6 +162,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -158,63 +177,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,13 +232,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +346,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,49 +388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,91 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,10 +443,32 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -454,15 +479,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,17 +498,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,15 +523,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -528,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -993,10 +996,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:M22"/>
+  <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1013,10 +1016,10 @@
     <col min="10" max="10" width="5.625" customWidth="1"/>
     <col min="11" max="11" width="6" customWidth="1"/>
     <col min="12" max="12" width="5.75" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="13" max="13" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1053,6 +1056,9 @@
       <c r="L2" t="s">
         <v>11</v>
       </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
@@ -1089,7 +1095,7 @@
         <v>6</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1127,10 +1133,10 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1161,13 +1167,16 @@
       <c r="J5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1193,13 +1202,16 @@
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1208,10 +1220,10 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1220,10 +1232,13 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1240,6 +1255,9 @@
         <v>1</v>
       </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
@@ -1268,10 +1286,10 @@
       <c r="E9">
         <v>1</v>
       </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
       <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="I9">
         <v>2</v>
       </c>
       <c r="J9">
@@ -1294,17 +1312,17 @@
       <c r="E10">
         <v>1</v>
       </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
       <c r="J10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1318,10 +1336,13 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1362,9 +1383,7 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
+      <c r="B14"/>
       <c r="C14">
         <v>1</v>
       </c>
@@ -1379,25 +1398,27 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
+      <c r="B15"/>
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
       <c r="G15">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
+      <c r="B16"/>
       <c r="C16">
         <v>1</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1443,16 +1464,16 @@
         <v>19</v>
       </c>
       <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <f t="shared" ref="B22:L22" si="0">SUM(B3:B21)</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -1464,15 +1485,15 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
@@ -1480,23 +1501,25 @@
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <f>SUM(B22:L22)</f>
-        <v>130</v>
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <f>SUM(B22:M22)</f>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
